--- a/biology/Virologie/Orthohantavirus/Orthohantavirus.xlsx
+++ b/biology/Virologie/Orthohantavirus/Orthohantavirus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Orthohantavirus regroupe des virus, historiquement appelés hantavirus, appartenant à la famille des Hantaviridae, parmi lesquels le virus de Hantaan semble le plus dangereux. Il s'agit de virus à ARN monocaténaire de polarité négative appartenant au groupe V de la classification Baltimore.
 L'humain est un hôte accidentel de ces virus (l'un des hôtes mammifères possibles). L'animal réservoir est un rongeur dont l'espèce varie selon les régions du monde :
@@ -518,7 +530,9 @@
           <t>Types de hantavirus</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Divers hantavirus ont été isolés chez des rats de plusieurs grandes villes d'Asie et d'Occident dont aux États-Unis, ainsi qu'au Brésil ;
 les virus à l'origine du SPH (syndrome pulmonaire à Hantavirus) ont été isolés dans les deux Amériques (Sin Nombre, New York, Parc national de Yosemite en Californie, Black Creek Canal, Bayou, Laguna Negra, Andes) ;
@@ -551,7 +565,9 @@
           <t>Maladies humaines à hantavirus</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les hantavirus sont responsables de deux grands types de syndromes : la fièvre hémorragique avec syndrome rénal et  le syndrome pulmonaire à Hantavirus.
 </t>
@@ -582,7 +598,9 @@
           <t>Maladies proches et confusions possibles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">D'autres Bunyaviridae sont responsables de fièvres hémorragiques. Notamment :
 le virus de la fièvre hémorragique de Crimée-Congo ;
@@ -620,7 +638,9 @@
           <t>En Europe</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hantaviose (néphropathie épidémique ou NE) est supposée être le plus souvent contractée par voie respiratoire, via l'inhalation de particules virales émises à partir d'excrétions de petits rongeurs, ou à la suite d'une morsure d'un rongeur infecté ou encore à travers une plaie ouverte (ex. : griffure, piqûre ou toute effraction de la peau par une épine souillée par l'urine d'un rongeur (porteur).
 Le principal vecteur connu est en Europe le campagnol roussâtre qui vit dans les forêts, bois feuillus, taillis et haies.
@@ -652,9 +672,11 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme pour la maladie de Lyme, également hébergée en Europe par de petits rongeurs, mais véhiculée par les tiques, le nombre de cas annuels semble en augmentation en Europe, notamment chez certaines populations à risque (chasseurs, forestiers, naturalistes et personnes fréquentant les zones boisées)[2]. La salive et les excréments de rongeurs atteints semblent être les moyens de transmission du virus.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme pour la maladie de Lyme, également hébergée en Europe par de petits rongeurs, mais véhiculée par les tiques, le nombre de cas annuels semble en augmentation en Europe, notamment chez certaines populations à risque (chasseurs, forestiers, naturalistes et personnes fréquentant les zones boisées). La salive et les excréments de rongeurs atteints semblent être les moyens de transmission du virus.
 Contagion interhumaine : elle est rare, mais possible (au moins démontrée pour le virus des Andes). La transmission interhumaine de hantavirus n'a jamais été signalée aux États-Unis, mais elle l'a été pour quelques cas en Argentine.
 </t>
         </is>
@@ -684,9 +706,11 @@
           <t>Prévention, dans la nature et en laboratoire</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On recommande le port de gants, le pansement et la désinfection soigneuse de toutes les plaies survenues en zone à risque, ainsi que se positionner dos au vent en présence de rongeurs morts ou vifs ou de leurs excréments ou nids[3].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On recommande le port de gants, le pansement et la désinfection soigneuse de toutes les plaies survenues en zone à risque, ainsi que se positionner dos au vent en présence de rongeurs morts ou vifs ou de leurs excréments ou nids.
 Des cas de patients infectés durant une manipulation en laboratoire ont été décrits dans plus de 6 pays (fin 1985, 126 cas de FHSR ainsi acquise avaient été signalés rien qu'au Japon ; en 1986, 4 cas étaient signalés au Royaume-Uni, généralement à la suite d'un contact avec des aérosols (particules en suspension) issus de rongeurs infectés.
 </t>
         </is>
@@ -716,12 +740,14 @@
           <t>Cas récents</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">En Guyane depuis 2008, trois cas ont été déclarés, dont 2 mortels en mars et décembre 2010. Ces virus sont véhiculés par plusieurs espèces de rongeurs dont, en Guyane, Zygodontomys brevicauda et Oecomys bicolor d'après les sources médicales.
-En Californie, six cas ont été déclarés, dont deux mortels durant l'été 2012. La contamination qui a potentiellement exposé plus de 10 000 visiteurs de Curry Village, situé dans le Parc national de Yosemite en Californie, s'est produite par la présence de rongeurs infectés dans les tentes-cabines à double-mur[4],[5]. Isolées avec deux cloisons, les tentes-cabines offraient un endroit de nidification privilégié pour les rongeurs qui pouvaient se glisser dans l'espace entre les deux murs.
+En Californie, six cas ont été déclarés, dont deux mortels durant l'été 2012. La contamination qui a potentiellement exposé plus de 10 000 visiteurs de Curry Village, situé dans le Parc national de Yosemite en Californie, s'est produite par la présence de rongeurs infectés dans les tentes-cabines à double-mur,. Isolées avec deux cloisons, les tentes-cabines offraient un endroit de nidification privilégié pour les rongeurs qui pouvaient se glisser dans l'espace entre les deux murs.
 En mars 2020, en Chine. un homme est décédé dans un bus et a été déclaré positif à l'orthohantavirus.
-En avril 2021, en France dans le Jura, 7 cas sont déclarés[6].
+En avril 2021, en France dans le Jura, 7 cas sont déclarés.
 </t>
         </is>
       </c>
